--- a/data/resultats_xlsx.xlsx
+++ b/data/resultats_xlsx.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="resultats_csv_90111 (1)" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
   <si>
     <t xml:space="preserve">EPREUVE</t>
   </si>
@@ -410,6 +411,96 @@
   </si>
   <si>
     <t xml:space="preserve">00:40.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:50.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:38.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:38.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:46.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOURET Jeanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:54.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:55.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:57.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:12.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROLET Antone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:48.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLYNCK Gaspard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:52.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARDIEZ Mathys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:57.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARDIEZ Esteban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:58.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:52.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:55.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:13.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_PRENOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNEE_NAISSANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINTS_FFN</t>
   </si>
 </sst>
 </file>
@@ -487,12 +578,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,6 +608,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -689,2066 +805,2552 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L78" activeCellId="0" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>771</v>
       </c>
-      <c r="H2" s="0" t="str">
+      <c r="H2" s="1" t="str">
         <f aca="false">IF((YEAR(F2)-D2)&lt;=11,"Avenirs",IF((YEAR(F2)-D2)&lt;=13,"Benjamins",IF((YEAR(F2)-D2)&lt;=18,"Juniors",IF((YEAR(F2)-D2)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F2)-D2-25)/5,0)))))</f>
         <v>Master C4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>445</v>
       </c>
-      <c r="H3" s="0" t="str">
+      <c r="H3" s="1" t="str">
         <f aca="false">IF((YEAR(F3)-D3)&lt;=11,"Avenirs",IF((YEAR(F3)-D3)&lt;=13,"Benjamins",IF((YEAR(F3)-D3)&lt;=18,"Juniors",IF((YEAR(F3)-D3)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F3)-D3-25)/5,0)))))</f>
         <v>Master C1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>764</v>
       </c>
-      <c r="H4" s="0" t="str">
+      <c r="H4" s="1" t="str">
         <f aca="false">IF((YEAR(F4)-D4)&lt;=11,"Avenirs",IF((YEAR(F4)-D4)&lt;=13,"Benjamins",IF((YEAR(F4)-D4)&lt;=18,"Juniors",IF((YEAR(F4)-D4)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F4)-D4-25)/5,0)))))</f>
         <v>Master C5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>655</v>
       </c>
-      <c r="H5" s="0" t="str">
+      <c r="H5" s="1" t="str">
         <f aca="false">IF((YEAR(F5)-D5)&lt;=11,"Avenirs",IF((YEAR(F5)-D5)&lt;=13,"Benjamins",IF((YEAR(F5)-D5)&lt;=18,"Juniors",IF((YEAR(F5)-D5)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F5)-D5-25)/5,0)))))</f>
         <v>Master C7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>488</v>
       </c>
-      <c r="H6" s="0" t="str">
+      <c r="H6" s="1" t="str">
         <f aca="false">IF((YEAR(F6)-D6)&lt;=11,"Avenirs",IF((YEAR(F6)-D6)&lt;=13,"Benjamins",IF((YEAR(F6)-D6)&lt;=18,"Juniors",IF((YEAR(F6)-D6)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F6)-D6-25)/5,0)))))</f>
         <v>Master C2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>612</v>
       </c>
-      <c r="H7" s="0" t="str">
+      <c r="H7" s="1" t="str">
         <f aca="false">IF((YEAR(F7)-D7)&lt;=11,"Avenirs",IF((YEAR(F7)-D7)&lt;=13,"Benjamins",IF((YEAR(F7)-D7)&lt;=18,"Juniors",IF((YEAR(F7)-D7)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F7)-D7-25)/5,0)))))</f>
         <v>Master C5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="H8" s="0" t="str">
+      <c r="H8" s="1" t="str">
         <f aca="false">IF((YEAR(F8)-D8)&lt;=11,"Avenirs",IF((YEAR(F8)-D8)&lt;=13,"Benjamins",IF((YEAR(F8)-D8)&lt;=18,"Juniors",IF((YEAR(F8)-D8)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F8)-D8-25)/5,0)))))</f>
         <v>Master C8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="H9" s="0" t="str">
+      <c r="H9" s="1" t="str">
         <f aca="false">IF((YEAR(F9)-D9)&lt;=11,"Avenirs",IF((YEAR(F9)-D9)&lt;=13,"Benjamins",IF((YEAR(F9)-D9)&lt;=18,"Juniors",IF((YEAR(F9)-D9)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F9)-D9-25)/5,0)))))</f>
         <v>Master C8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>451</v>
       </c>
-      <c r="H10" s="0" t="str">
+      <c r="H10" s="1" t="str">
         <f aca="false">IF((YEAR(F10)-D10)&lt;=11,"Avenirs",IF((YEAR(F10)-D10)&lt;=13,"Benjamins",IF((YEAR(F10)-D10)&lt;=18,"Juniors",IF((YEAR(F10)-D10)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F10)-D10-25)/5,0)))))</f>
         <v>Master C6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>509</v>
       </c>
-      <c r="H11" s="0" t="str">
+      <c r="H11" s="1" t="str">
         <f aca="false">IF((YEAR(F11)-D11)&lt;=11,"Avenirs",IF((YEAR(F11)-D11)&lt;=13,"Benjamins",IF((YEAR(F11)-D11)&lt;=18,"Juniors",IF((YEAR(F11)-D11)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F11)-D11-25)/5,0)))))</f>
         <v>Master C7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="H12" s="0" t="str">
+      <c r="H12" s="1" t="str">
         <f aca="false">IF((YEAR(F12)-D12)&lt;=11,"Avenirs",IF((YEAR(F12)-D12)&lt;=13,"Benjamins",IF((YEAR(F12)-D12)&lt;=18,"Juniors",IF((YEAR(F12)-D12)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F12)-D12-25)/5,0)))))</f>
         <v>Master C2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>637</v>
       </c>
-      <c r="H13" s="0" t="str">
+      <c r="H13" s="1" t="str">
         <f aca="false">IF((YEAR(F13)-D13)&lt;=11,"Avenirs",IF((YEAR(F13)-D13)&lt;=13,"Benjamins",IF((YEAR(F13)-D13)&lt;=18,"Juniors",IF((YEAR(F13)-D13)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F13)-D13-25)/5,0)))))</f>
         <v>Master C5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>473</v>
       </c>
-      <c r="H14" s="0" t="str">
+      <c r="H14" s="1" t="str">
         <f aca="false">IF((YEAR(F14)-D14)&lt;=11,"Avenirs",IF((YEAR(F14)-D14)&lt;=13,"Benjamins",IF((YEAR(F14)-D14)&lt;=18,"Juniors",IF((YEAR(F14)-D14)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F14)-D14-25)/5,0)))))</f>
         <v>Master C5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="H15" s="0" t="str">
+      <c r="H15" s="1" t="str">
         <f aca="false">IF((YEAR(F15)-D15)&lt;=11,"Avenirs",IF((YEAR(F15)-D15)&lt;=13,"Benjamins",IF((YEAR(F15)-D15)&lt;=18,"Juniors",IF((YEAR(F15)-D15)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F15)-D15-25)/5,0)))))</f>
         <v>Master C4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>834</v>
       </c>
-      <c r="H16" s="0" t="str">
+      <c r="H16" s="1" t="str">
         <f aca="false">IF((YEAR(F16)-D16)&lt;=11,"Avenirs",IF((YEAR(F16)-D16)&lt;=13,"Benjamins",IF((YEAR(F16)-D16)&lt;=18,"Juniors",IF((YEAR(F16)-D16)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F16)-D16-25)/5,0)))))</f>
         <v>Master C4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>583</v>
       </c>
-      <c r="H17" s="0" t="str">
+      <c r="H17" s="1" t="str">
         <f aca="false">IF((YEAR(F17)-D17)&lt;=11,"Avenirs",IF((YEAR(F17)-D17)&lt;=13,"Benjamins",IF((YEAR(F17)-D17)&lt;=18,"Juniors",IF((YEAR(F17)-D17)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F17)-D17-25)/5,0)))))</f>
         <v>Master C2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="H18" s="0" t="str">
+      <c r="H18" s="1" t="str">
         <f aca="false">IF((YEAR(F18)-D18)&lt;=11,"Avenirs",IF((YEAR(F18)-D18)&lt;=13,"Benjamins",IF((YEAR(F18)-D18)&lt;=18,"Juniors",IF((YEAR(F18)-D18)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F18)-D18-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="H19" s="0" t="str">
+      <c r="H19" s="1" t="str">
         <f aca="false">IF((YEAR(F19)-D19)&lt;=11,"Avenirs",IF((YEAR(F19)-D19)&lt;=13,"Benjamins",IF((YEAR(F19)-D19)&lt;=18,"Juniors",IF((YEAR(F19)-D19)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F19)-D19-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="H20" s="0" t="str">
+      <c r="H20" s="1" t="str">
         <f aca="false">IF((YEAR(F20)-D20)&lt;=11,"Avenirs",IF((YEAR(F20)-D20)&lt;=13,"Benjamins",IF((YEAR(F20)-D20)&lt;=18,"Juniors",IF((YEAR(F20)-D20)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F20)-D20-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="H21" s="0" t="str">
+      <c r="H21" s="1" t="str">
         <f aca="false">IF((YEAR(F21)-D21)&lt;=11,"Avenirs",IF((YEAR(F21)-D21)&lt;=13,"Benjamins",IF((YEAR(F21)-D21)&lt;=18,"Juniors",IF((YEAR(F21)-D21)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F21)-D21-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>781</v>
       </c>
-      <c r="H22" s="0" t="str">
+      <c r="H22" s="1" t="str">
         <f aca="false">IF((YEAR(F22)-D22)&lt;=11,"Avenirs",IF((YEAR(F22)-D22)&lt;=13,"Benjamins",IF((YEAR(F22)-D22)&lt;=18,"Juniors",IF((YEAR(F22)-D22)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F22)-D22-25)/5,0)))))</f>
         <v>Seniors</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>754</v>
       </c>
-      <c r="H23" s="0" t="str">
+      <c r="H23" s="1" t="str">
         <f aca="false">IF((YEAR(F23)-D23)&lt;=11,"Avenirs",IF((YEAR(F23)-D23)&lt;=13,"Benjamins",IF((YEAR(F23)-D23)&lt;=18,"Juniors",IF((YEAR(F23)-D23)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F23)-D23-25)/5,0)))))</f>
         <v>Seniors</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>708</v>
       </c>
-      <c r="H24" s="0" t="str">
+      <c r="H24" s="1" t="str">
         <f aca="false">IF((YEAR(F24)-D24)&lt;=11,"Avenirs",IF((YEAR(F24)-D24)&lt;=13,"Benjamins",IF((YEAR(F24)-D24)&lt;=18,"Juniors",IF((YEAR(F24)-D24)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F24)-D24-25)/5,0)))))</f>
         <v>Seniors</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>632</v>
       </c>
-      <c r="H25" s="0" t="str">
+      <c r="H25" s="1" t="str">
         <f aca="false">IF((YEAR(F25)-D25)&lt;=11,"Avenirs",IF((YEAR(F25)-D25)&lt;=13,"Benjamins",IF((YEAR(F25)-D25)&lt;=18,"Juniors",IF((YEAR(F25)-D25)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F25)-D25-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="H26" s="0" t="str">
+      <c r="H26" s="1" t="str">
         <f aca="false">IF((YEAR(F26)-D26)&lt;=11,"Avenirs",IF((YEAR(F26)-D26)&lt;=13,"Benjamins",IF((YEAR(F26)-D26)&lt;=18,"Juniors",IF((YEAR(F26)-D26)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F26)-D26-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>548</v>
       </c>
-      <c r="H27" s="0" t="str">
+      <c r="H27" s="1" t="str">
         <f aca="false">IF((YEAR(F27)-D27)&lt;=11,"Avenirs",IF((YEAR(F27)-D27)&lt;=13,"Benjamins",IF((YEAR(F27)-D27)&lt;=18,"Juniors",IF((YEAR(F27)-D27)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F27)-D27-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="H28" s="0" t="str">
+      <c r="H28" s="1" t="str">
         <f aca="false">IF((YEAR(F28)-D28)&lt;=11,"Avenirs",IF((YEAR(F28)-D28)&lt;=13,"Benjamins",IF((YEAR(F28)-D28)&lt;=18,"Juniors",IF((YEAR(F28)-D28)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F28)-D28-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="H29" s="0" t="str">
+      <c r="H29" s="1" t="str">
         <f aca="false">IF((YEAR(F29)-D29)&lt;=11,"Avenirs",IF((YEAR(F29)-D29)&lt;=13,"Benjamins",IF((YEAR(F29)-D29)&lt;=18,"Juniors",IF((YEAR(F29)-D29)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F29)-D29-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="H30" s="0" t="str">
+      <c r="H30" s="1" t="str">
         <f aca="false">IF((YEAR(F30)-D30)&lt;=11,"Avenirs",IF((YEAR(F30)-D30)&lt;=13,"Benjamins",IF((YEAR(F30)-D30)&lt;=18,"Juniors",IF((YEAR(F30)-D30)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F30)-D30-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="H31" s="0" t="str">
+      <c r="H31" s="1" t="str">
         <f aca="false">IF((YEAR(F31)-D31)&lt;=11,"Avenirs",IF((YEAR(F31)-D31)&lt;=13,"Benjamins",IF((YEAR(F31)-D31)&lt;=18,"Juniors",IF((YEAR(F31)-D31)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F31)-D31-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="H32" s="0" t="str">
+      <c r="H32" s="1" t="str">
         <f aca="false">IF((YEAR(F32)-D32)&lt;=11,"Avenirs",IF((YEAR(F32)-D32)&lt;=13,"Benjamins",IF((YEAR(F32)-D32)&lt;=18,"Juniors",IF((YEAR(F32)-D32)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F32)-D32-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="H33" s="0" t="str">
+      <c r="H33" s="1" t="str">
         <f aca="false">IF((YEAR(F33)-D33)&lt;=11,"Avenirs",IF((YEAR(F33)-D33)&lt;=13,"Benjamins",IF((YEAR(F33)-D33)&lt;=18,"Juniors",IF((YEAR(F33)-D33)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F33)-D33-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="H34" s="0" t="str">
+      <c r="H34" s="1" t="str">
         <f aca="false">IF((YEAR(F34)-D34)&lt;=11,"Avenirs",IF((YEAR(F34)-D34)&lt;=13,"Benjamins",IF((YEAR(F34)-D34)&lt;=18,"Juniors",IF((YEAR(F34)-D34)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F34)-D34-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="H35" s="0" t="str">
+      <c r="H35" s="1" t="str">
         <f aca="false">IF((YEAR(F35)-D35)&lt;=11,"Avenirs",IF((YEAR(F35)-D35)&lt;=13,"Benjamins",IF((YEAR(F35)-D35)&lt;=18,"Juniors",IF((YEAR(F35)-D35)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F35)-D35-25)/5,0)))))</f>
         <v>Seniors</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <v>490</v>
       </c>
-      <c r="H36" s="0" t="str">
+      <c r="H36" s="1" t="str">
         <f aca="false">IF((YEAR(F36)-D36)&lt;=11,"Avenirs",IF((YEAR(F36)-D36)&lt;=13,"Benjamins",IF((YEAR(F36)-D36)&lt;=18,"Juniors",IF((YEAR(F36)-D36)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F36)-D36-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="H37" s="0" t="str">
+      <c r="H37" s="1" t="str">
         <f aca="false">IF((YEAR(F37)-D37)&lt;=11,"Avenirs",IF((YEAR(F37)-D37)&lt;=13,"Benjamins",IF((YEAR(F37)-D37)&lt;=18,"Juniors",IF((YEAR(F37)-D37)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F37)-D37-25)/5,0)))))</f>
         <v>Master C4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="H38" s="0" t="str">
+      <c r="H38" s="1" t="str">
         <f aca="false">IF((YEAR(F38)-D38)&lt;=11,"Avenirs",IF((YEAR(F38)-D38)&lt;=13,"Benjamins",IF((YEAR(F38)-D38)&lt;=18,"Juniors",IF((YEAR(F38)-D38)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F38)-D38-25)/5,0)))))</f>
         <v>Master C2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="H39" s="0" t="str">
+      <c r="H39" s="1" t="str">
         <f aca="false">IF((YEAR(F39)-D39)&lt;=11,"Avenirs",IF((YEAR(F39)-D39)&lt;=13,"Benjamins",IF((YEAR(F39)-D39)&lt;=18,"Juniors",IF((YEAR(F39)-D39)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F39)-D39-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="H40" s="0" t="str">
+      <c r="H40" s="1" t="str">
         <f aca="false">IF((YEAR(F40)-D40)&lt;=11,"Avenirs",IF((YEAR(F40)-D40)&lt;=13,"Benjamins",IF((YEAR(F40)-D40)&lt;=18,"Juniors",IF((YEAR(F40)-D40)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F40)-D40-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <v>672</v>
       </c>
-      <c r="H41" s="0" t="str">
+      <c r="H41" s="1" t="str">
         <f aca="false">IF((YEAR(F41)-D41)&lt;=11,"Avenirs",IF((YEAR(F41)-D41)&lt;=13,"Benjamins",IF((YEAR(F41)-D41)&lt;=18,"Juniors",IF((YEAR(F41)-D41)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F41)-D41-25)/5,0)))))</f>
         <v>Seniors</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="H42" s="0" t="str">
+      <c r="H42" s="1" t="str">
         <f aca="false">IF((YEAR(F42)-D42)&lt;=11,"Avenirs",IF((YEAR(F42)-D42)&lt;=13,"Benjamins",IF((YEAR(F42)-D42)&lt;=18,"Juniors",IF((YEAR(F42)-D42)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F42)-D42-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <v>429</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="H44" s="0" t="str">
+      <c r="H44" s="1" t="str">
         <f aca="false">IF((YEAR(F44)-D44)&lt;=11,"Avenirs",IF((YEAR(F44)-D44)&lt;=13,"Benjamins",IF((YEAR(F44)-D44)&lt;=18,"Juniors",IF((YEAR(F44)-D44)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F44)-D44-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="H45" s="0" t="str">
+      <c r="H45" s="1" t="str">
         <f aca="false">IF((YEAR(F45)-D45)&lt;=11,"Avenirs",IF((YEAR(F45)-D45)&lt;=13,"Benjamins",IF((YEAR(F45)-D45)&lt;=18,"Juniors",IF((YEAR(F45)-D45)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F45)-D45-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="H46" s="0" t="str">
+      <c r="H46" s="1" t="str">
         <f aca="false">IF((YEAR(F46)-D46)&lt;=11,"Avenirs",IF((YEAR(F46)-D46)&lt;=13,"Benjamins",IF((YEAR(F46)-D46)&lt;=18,"Juniors",IF((YEAR(F46)-D46)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F46)-D46-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="H47" s="0" t="str">
+      <c r="H47" s="1" t="str">
         <f aca="false">IF((YEAR(F47)-D47)&lt;=11,"Avenirs",IF((YEAR(F47)-D47)&lt;=13,"Benjamins",IF((YEAR(F47)-D47)&lt;=18,"Juniors",IF((YEAR(F47)-D47)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F47)-D47-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="H48" s="0" t="str">
+      <c r="H48" s="1" t="str">
         <f aca="false">IF((YEAR(F48)-D48)&lt;=11,"Avenirs",IF((YEAR(F48)-D48)&lt;=13,"Benjamins",IF((YEAR(F48)-D48)&lt;=18,"Juniors",IF((YEAR(F48)-D48)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F48)-D48-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="H49" s="0" t="str">
+      <c r="H49" s="1" t="str">
         <f aca="false">IF((YEAR(F49)-D49)&lt;=11,"Avenirs",IF((YEAR(F49)-D49)&lt;=13,"Benjamins",IF((YEAR(F49)-D49)&lt;=18,"Juniors",IF((YEAR(F49)-D49)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F49)-D49-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="H50" s="0" t="str">
+      <c r="H50" s="1" t="str">
         <f aca="false">IF((YEAR(F50)-D50)&lt;=11,"Avenirs",IF((YEAR(F50)-D50)&lt;=13,"Benjamins",IF((YEAR(F50)-D50)&lt;=18,"Juniors",IF((YEAR(F50)-D50)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F50)-D50-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="B51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="1" t="n">
         <v>539</v>
       </c>
-      <c r="H51" s="0" t="str">
+      <c r="H51" s="1" t="str">
         <f aca="false">IF((YEAR(F51)-D51)&lt;=11,"Avenirs",IF((YEAR(F51)-D51)&lt;=13,"Benjamins",IF((YEAR(F51)-D51)&lt;=18,"Juniors",IF((YEAR(F51)-D51)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F51)-D51-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="0" t="s">
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="H52" s="0" t="str">
+      <c r="H52" s="1" t="str">
         <f aca="false">IF((YEAR(F52)-D52)&lt;=11,"Avenirs",IF((YEAR(F52)-D52)&lt;=13,"Benjamins",IF((YEAR(F52)-D52)&lt;=18,"Juniors",IF((YEAR(F52)-D52)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F52)-D52-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="H53" s="0" t="str">
+      <c r="H53" s="1" t="str">
         <f aca="false">IF((YEAR(F53)-D53)&lt;=11,"Avenirs",IF((YEAR(F53)-D53)&lt;=13,"Benjamins",IF((YEAR(F53)-D53)&lt;=18,"Juniors",IF((YEAR(F53)-D53)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F53)-D53-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="H54" s="0" t="str">
+      <c r="H54" s="1" t="str">
         <f aca="false">IF((YEAR(F54)-D54)&lt;=11,"Avenirs",IF((YEAR(F54)-D54)&lt;=13,"Benjamins",IF((YEAR(F54)-D54)&lt;=18,"Juniors",IF((YEAR(F54)-D54)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F54)-D54-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="H55" s="0" t="str">
+      <c r="H55" s="1" t="str">
         <f aca="false">IF((YEAR(F55)-D55)&lt;=11,"Avenirs",IF((YEAR(F55)-D55)&lt;=13,"Benjamins",IF((YEAR(F55)-D55)&lt;=18,"Juniors",IF((YEAR(F55)-D55)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F55)-D55-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="0" t="s">
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="H56" s="0" t="str">
+      <c r="H56" s="1" t="str">
         <f aca="false">IF((YEAR(F56)-D56)&lt;=11,"Avenirs",IF((YEAR(F56)-D56)&lt;=13,"Benjamins",IF((YEAR(F56)-D56)&lt;=18,"Juniors",IF((YEAR(F56)-D56)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F56)-D56-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="H57" s="0" t="str">
+      <c r="H57" s="1" t="str">
         <f aca="false">IF((YEAR(F57)-D57)&lt;=11,"Avenirs",IF((YEAR(F57)-D57)&lt;=13,"Benjamins",IF((YEAR(F57)-D57)&lt;=18,"Juniors",IF((YEAR(F57)-D57)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F57)-D57-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="H58" s="0" t="str">
+      <c r="H58" s="1" t="str">
         <f aca="false">IF((YEAR(F58)-D58)&lt;=11,"Avenirs",IF((YEAR(F58)-D58)&lt;=13,"Benjamins",IF((YEAR(F58)-D58)&lt;=18,"Juniors",IF((YEAR(F58)-D58)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F58)-D58-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="H59" s="0" t="str">
+      <c r="H59" s="1" t="str">
         <f aca="false">IF((YEAR(F59)-D59)&lt;=11,"Avenirs",IF((YEAR(F59)-D59)&lt;=13,"Benjamins",IF((YEAR(F59)-D59)&lt;=18,"Juniors",IF((YEAR(F59)-D59)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F59)-D59-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="H60" s="0" t="str">
+      <c r="H60" s="1" t="str">
         <f aca="false">IF((YEAR(F60)-D60)&lt;=11,"Avenirs",IF((YEAR(F60)-D60)&lt;=13,"Benjamins",IF((YEAR(F60)-D60)&lt;=18,"Juniors",IF((YEAR(F60)-D60)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F60)-D60-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="H61" s="0" t="str">
+      <c r="H61" s="1" t="str">
         <f aca="false">IF((YEAR(F61)-D61)&lt;=11,"Avenirs",IF((YEAR(F61)-D61)&lt;=13,"Benjamins",IF((YEAR(F61)-D61)&lt;=18,"Juniors",IF((YEAR(F61)-D61)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F61)-D61-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="H62" s="0" t="str">
+      <c r="H62" s="1" t="str">
         <f aca="false">IF((YEAR(F62)-D62)&lt;=11,"Avenirs",IF((YEAR(F62)-D62)&lt;=13,"Benjamins",IF((YEAR(F62)-D62)&lt;=18,"Juniors",IF((YEAR(F62)-D62)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F62)-D62-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="H63" s="0" t="str">
+      <c r="H63" s="1" t="str">
         <f aca="false">IF((YEAR(F63)-D63)&lt;=11,"Avenirs",IF((YEAR(F63)-D63)&lt;=13,"Benjamins",IF((YEAR(F63)-D63)&lt;=18,"Juniors",IF((YEAR(F63)-D63)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F63)-D63-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="1" t="n">
         <v>473</v>
       </c>
-      <c r="H64" s="0" t="str">
+      <c r="H64" s="1" t="str">
         <f aca="false">IF((YEAR(F64)-D64)&lt;=11,"Avenirs",IF((YEAR(F64)-D64)&lt;=13,"Benjamins",IF((YEAR(F64)-D64)&lt;=18,"Juniors",IF((YEAR(F64)-D64)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F64)-D64-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="H65" s="0" t="str">
+      <c r="H65" s="1" t="str">
         <f aca="false">IF((YEAR(F65)-D65)&lt;=11,"Avenirs",IF((YEAR(F65)-D65)&lt;=13,"Benjamins",IF((YEAR(F65)-D65)&lt;=18,"Juniors",IF((YEAR(F65)-D65)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F65)-D65-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="B66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="H66" s="0" t="str">
+      <c r="H66" s="1" t="str">
         <f aca="false">IF((YEAR(F66)-D66)&lt;=11,"Avenirs",IF((YEAR(F66)-D66)&lt;=13,"Benjamins",IF((YEAR(F66)-D66)&lt;=18,"Juniors",IF((YEAR(F66)-D66)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F66)-D66-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="B67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="H67" s="0" t="str">
+      <c r="H67" s="1" t="str">
         <f aca="false">IF((YEAR(F67)-D67)&lt;=11,"Avenirs",IF((YEAR(F67)-D67)&lt;=13,"Benjamins",IF((YEAR(F67)-D67)&lt;=18,"Juniors",IF((YEAR(F67)-D67)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F67)-D67-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="H68" s="0" t="str">
+      <c r="H68" s="1" t="str">
         <f aca="false">IF((YEAR(F68)-D68)&lt;=11,"Avenirs",IF((YEAR(F68)-D68)&lt;=13,"Benjamins",IF((YEAR(F68)-D68)&lt;=18,"Juniors",IF((YEAR(F68)-D68)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F68)-D68-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="H69" s="0" t="str">
+      <c r="H69" s="1" t="str">
         <f aca="false">IF((YEAR(F69)-D69)&lt;=11,"Avenirs",IF((YEAR(F69)-D69)&lt;=13,"Benjamins",IF((YEAR(F69)-D69)&lt;=18,"Juniors",IF((YEAR(F69)-D69)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F69)-D69-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="H70" s="0" t="str">
+      <c r="H70" s="1" t="str">
         <f aca="false">IF((YEAR(F70)-D70)&lt;=11,"Avenirs",IF((YEAR(F70)-D70)&lt;=13,"Benjamins",IF((YEAR(F70)-D70)&lt;=18,"Juniors",IF((YEAR(F70)-D70)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F70)-D70-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="H71" s="0" t="str">
+      <c r="H71" s="1" t="str">
         <f aca="false">IF((YEAR(F71)-D71)&lt;=11,"Avenirs",IF((YEAR(F71)-D71)&lt;=13,"Benjamins",IF((YEAR(F71)-D71)&lt;=18,"Juniors",IF((YEAR(F71)-D71)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F71)-D71-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="B72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="H72" s="0" t="str">
+      <c r="H72" s="1" t="str">
         <f aca="false">IF((YEAR(F72)-D72)&lt;=11,"Avenirs",IF((YEAR(F72)-D72)&lt;=13,"Benjamins",IF((YEAR(F72)-D72)&lt;=18,"Juniors",IF((YEAR(F72)-D72)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F72)-D72-25)/5,0)))))</f>
         <v>Benjamins</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="H73" s="0" t="str">
+      <c r="H73" s="1" t="str">
         <f aca="false">IF((YEAR(F73)-D73)&lt;=11,"Avenirs",IF((YEAR(F73)-D73)&lt;=13,"Benjamins",IF((YEAR(F73)-D73)&lt;=18,"Juniors",IF((YEAR(F73)-D73)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F73)-D73-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="B74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="H74" s="0" t="str">
+      <c r="H74" s="1" t="str">
         <f aca="false">IF((YEAR(F74)-D74)&lt;=11,"Avenirs",IF((YEAR(F74)-D74)&lt;=13,"Benjamins",IF((YEAR(F74)-D74)&lt;=18,"Juniors",IF((YEAR(F74)-D74)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F74)-D74-25)/5,0)))))</f>
         <v>Avenirs</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="1" t="n">
         <v>588</v>
       </c>
-      <c r="H75" s="0" t="str">
+      <c r="H75" s="1" t="str">
         <f aca="false">IF((YEAR(F75)-D75)&lt;=11,"Avenirs",IF((YEAR(F75)-D75)&lt;=13,"Benjamins",IF((YEAR(F75)-D75)&lt;=18,"Juniors",IF((YEAR(F75)-D75)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F75)-D75-25)/5,0)))))</f>
         <v>Juniors</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="H76" s="0" t="str">
+      <c r="H76" s="1" t="str">
         <f aca="false">IF((YEAR(F76)-D76)&lt;=11,"Avenirs",IF((YEAR(F76)-D76)&lt;=13,"Benjamins",IF((YEAR(F76)-D76)&lt;=18,"Juniors",IF((YEAR(F76)-D76)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F76)-D76-25)/5,0)))))</f>
         <v>Benjamins</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f aca="false">IF((YEAR(F77)-D77)&lt;=11,"Avenirs",IF((YEAR(F77)-D77)&lt;=13,"Benjamins",IF((YEAR(F77)-D77)&lt;=18,"Juniors",IF((YEAR(F77)-D77)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F77)-D77-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f aca="false">IF((YEAR(F78)-D78)&lt;=11,"Avenirs",IF((YEAR(F78)-D78)&lt;=13,"Benjamins",IF((YEAR(F78)-D78)&lt;=18,"Juniors",IF((YEAR(F78)-D78)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F78)-D78-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f aca="false">IF((YEAR(F79)-D79)&lt;=11,"Avenirs",IF((YEAR(F79)-D79)&lt;=13,"Benjamins",IF((YEAR(F79)-D79)&lt;=18,"Juniors",IF((YEAR(F79)-D79)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F79)-D79-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f aca="false">IF((YEAR(F80)-D80)&lt;=11,"Avenirs",IF((YEAR(F80)-D80)&lt;=13,"Benjamins",IF((YEAR(F80)-D80)&lt;=18,"Juniors",IF((YEAR(F80)-D80)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F80)-D80-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f aca="false">IF((YEAR(F81)-D81)&lt;=11,"Avenirs",IF((YEAR(F81)-D81)&lt;=13,"Benjamins",IF((YEAR(F81)-D81)&lt;=18,"Juniors",IF((YEAR(F81)-D81)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F81)-D81-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f aca="false">IF((YEAR(F82)-D82)&lt;=11,"Avenirs",IF((YEAR(F82)-D82)&lt;=13,"Benjamins",IF((YEAR(F82)-D82)&lt;=18,"Juniors",IF((YEAR(F82)-D82)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F82)-D82-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f aca="false">IF((YEAR(F83)-D83)&lt;=11,"Avenirs",IF((YEAR(F83)-D83)&lt;=13,"Benjamins",IF((YEAR(F83)-D83)&lt;=18,"Juniors",IF((YEAR(F83)-D83)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F83)-D83-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f aca="false">IF((YEAR(F84)-D84)&lt;=11,"Avenirs",IF((YEAR(F84)-D84)&lt;=13,"Benjamins",IF((YEAR(F84)-D84)&lt;=18,"Juniors",IF((YEAR(F84)-D84)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F84)-D84-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f aca="false">IF((YEAR(F85)-D85)&lt;=11,"Avenirs",IF((YEAR(F85)-D85)&lt;=13,"Benjamins",IF((YEAR(F85)-D85)&lt;=18,"Juniors",IF((YEAR(F85)-D85)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F85)-D85-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f aca="false">IF((YEAR(F86)-D86)&lt;=11,"Avenirs",IF((YEAR(F86)-D86)&lt;=13,"Benjamins",IF((YEAR(F86)-D86)&lt;=18,"Juniors",IF((YEAR(F86)-D86)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F86)-D86-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f aca="false">IF((YEAR(F87)-D87)&lt;=11,"Avenirs",IF((YEAR(F87)-D87)&lt;=13,"Benjamins",IF((YEAR(F87)-D87)&lt;=18,"Juniors",IF((YEAR(F87)-D87)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F87)-D87-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f aca="false">IF((YEAR(F88)-D88)&lt;=11,"Avenirs",IF((YEAR(F88)-D88)&lt;=13,"Benjamins",IF((YEAR(F88)-D88)&lt;=18,"Juniors",IF((YEAR(F88)-D88)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F88)-D88-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f aca="false">IF((YEAR(F89)-D89)&lt;=11,"Avenirs",IF((YEAR(F89)-D89)&lt;=13,"Benjamins",IF((YEAR(F89)-D89)&lt;=18,"Juniors",IF((YEAR(F89)-D89)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F89)-D89-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f aca="false">IF((YEAR(F90)-D90)&lt;=11,"Avenirs",IF((YEAR(F90)-D90)&lt;=13,"Benjamins",IF((YEAR(F90)-D90)&lt;=18,"Juniors",IF((YEAR(F90)-D90)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F90)-D90-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f aca="false">IF((YEAR(F91)-D91)&lt;=11,"Avenirs",IF((YEAR(F91)-D91)&lt;=13,"Benjamins",IF((YEAR(F91)-D91)&lt;=18,"Juniors",IF((YEAR(F91)-D91)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F91)-D91-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f aca="false">IF((YEAR(F92)-D92)&lt;=11,"Avenirs",IF((YEAR(F92)-D92)&lt;=13,"Benjamins",IF((YEAR(F92)-D92)&lt;=18,"Juniors",IF((YEAR(F92)-D92)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F92)-D92-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f aca="false">IF((YEAR(F93)-D93)&lt;=11,"Avenirs",IF((YEAR(F93)-D93)&lt;=13,"Benjamins",IF((YEAR(F93)-D93)&lt;=18,"Juniors",IF((YEAR(F93)-D93)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F93)-D93-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f aca="false">IF((YEAR(F94)-D94)&lt;=11,"Avenirs",IF((YEAR(F94)-D94)&lt;=13,"Benjamins",IF((YEAR(F94)-D94)&lt;=18,"Juniors",IF((YEAR(F94)-D94)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F94)-D94-25)/5,0)))))</f>
+        <v>Avenirs</v>
       </c>
     </row>
   </sheetData>
@@ -2760,4 +3362,235 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/resultats_xlsx.xlsx
+++ b/data/resultats_xlsx.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="190">
   <si>
     <t xml:space="preserve">EPREUVE</t>
   </si>
@@ -489,6 +489,96 @@
   </si>
   <si>
     <t xml:space="preserve">01:13.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOONIS Charlene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:54.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARDOUX Faustine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:16.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:08.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENGLAERT Marcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:58.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:02.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:01.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/02/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:10.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:28.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:56.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:45.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERMEERSCH Anèle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:44.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:46.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:19.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:52.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:56.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:46.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:10.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:28.05</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_PRENOM</t>
@@ -608,23 +698,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -805,10 +878,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L78" activeCellId="0" sqref="L78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C123" activeCellId="0" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2868,25 +2941,25 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77" s="1" t="n">
         <v>93</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -2895,25 +2968,25 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78" s="1" t="n">
         <v>172</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -2922,25 +2995,25 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="1" t="n">
         <v>169</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -2949,25 +3022,25 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="1" t="n">
         <v>86</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -2976,25 +3049,25 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81" s="1" t="n">
         <v>68</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -3003,25 +3076,25 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82" s="1" t="n">
         <v>314</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -3030,25 +3103,25 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="1" t="n">
         <v>272</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -3057,25 +3130,25 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84" s="1" t="n">
         <v>234</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -3084,25 +3157,25 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="1" t="n">
         <v>176</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -3111,25 +3184,25 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -3138,25 +3211,25 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -3165,25 +3238,25 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88" s="1" t="n">
         <v>26</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -3192,25 +3265,25 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H89" s="1" t="str">
@@ -3219,25 +3292,25 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H90" s="1" t="str">
@@ -3246,25 +3319,25 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91" s="1" t="n">
         <v>146</v>
       </c>
       <c r="H91" s="1" t="str">
@@ -3273,25 +3346,25 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="1" t="n">
         <v>78</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -3300,25 +3373,25 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -3327,25 +3400,25 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H94" s="1" t="str">
@@ -3353,6 +3426,522 @@
         <v>Avenirs</v>
       </c>
     </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f aca="false">IF((YEAR(F95)-D95)&lt;=11,"Avenirs",IF((YEAR(F95)-D95)&lt;=13,"Benjamins",IF((YEAR(F95)-D95)&lt;=18,"Juniors",IF((YEAR(F95)-D95)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F95)-D95-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f aca="false">IF((YEAR(F96)-D96)&lt;=11,"Avenirs",IF((YEAR(F96)-D96)&lt;=13,"Benjamins",IF((YEAR(F96)-D96)&lt;=18,"Juniors",IF((YEAR(F96)-D96)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F96)-D96-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f aca="false">IF((YEAR(F97)-D97)&lt;=11,"Avenirs",IF((YEAR(F97)-D97)&lt;=13,"Benjamins",IF((YEAR(F97)-D97)&lt;=18,"Juniors",IF((YEAR(F97)-D97)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F97)-D97-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f aca="false">IF((YEAR(F98)-D98)&lt;=11,"Avenirs",IF((YEAR(F98)-D98)&lt;=13,"Benjamins",IF((YEAR(F98)-D98)&lt;=18,"Juniors",IF((YEAR(F98)-D98)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F98)-D98-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f aca="false">IF((YEAR(F99)-D99)&lt;=11,"Avenirs",IF((YEAR(F99)-D99)&lt;=13,"Benjamins",IF((YEAR(F99)-D99)&lt;=18,"Juniors",IF((YEAR(F99)-D99)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F99)-D99-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f aca="false">IF((YEAR(F100)-D100)&lt;=11,"Avenirs",IF((YEAR(F100)-D100)&lt;=13,"Benjamins",IF((YEAR(F100)-D100)&lt;=18,"Juniors",IF((YEAR(F100)-D100)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F100)-D100-25)/5,0)))))</f>
+        <v>Avenirs</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>472</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f aca="false">IF((YEAR(F101)-D101)&lt;=11,"Avenirs",IF((YEAR(F101)-D101)&lt;=13,"Benjamins",IF((YEAR(F101)-D101)&lt;=18,"Juniors",IF((YEAR(F101)-D101)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F101)-D101-25)/5,0)))))</f>
+        <v>Benjamins</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f aca="false">IF((YEAR(F102)-D102)&lt;=11,"Avenirs",IF((YEAR(F102)-D102)&lt;=13,"Benjamins",IF((YEAR(F102)-D102)&lt;=18,"Juniors",IF((YEAR(F102)-D102)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F102)-D102-25)/5,0)))))</f>
+        <v>Benjamins</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f aca="false">IF((YEAR(F103)-D103)&lt;=11,"Avenirs",IF((YEAR(F103)-D103)&lt;=13,"Benjamins",IF((YEAR(F103)-D103)&lt;=18,"Juniors",IF((YEAR(F103)-D103)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F103)-D103-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f aca="false">IF((YEAR(F104)-D104)&lt;=11,"Avenirs",IF((YEAR(F104)-D104)&lt;=13,"Benjamins",IF((YEAR(F104)-D104)&lt;=18,"Juniors",IF((YEAR(F104)-D104)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F104)-D104-25)/5,0)))))</f>
+        <v>Benjamins</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f aca="false">IF((YEAR(F105)-D105)&lt;=11,"Avenirs",IF((YEAR(F105)-D105)&lt;=13,"Benjamins",IF((YEAR(F105)-D105)&lt;=18,"Juniors",IF((YEAR(F105)-D105)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F105)-D105-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f aca="false">IF((YEAR(F106)-D106)&lt;=11,"Avenirs",IF((YEAR(F106)-D106)&lt;=13,"Benjamins",IF((YEAR(F106)-D106)&lt;=18,"Juniors",IF((YEAR(F106)-D106)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F106)-D106-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>486</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f aca="false">IF((YEAR(F107)-D107)&lt;=11,"Avenirs",IF((YEAR(F107)-D107)&lt;=13,"Benjamins",IF((YEAR(F107)-D107)&lt;=18,"Juniors",IF((YEAR(F107)-D107)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F107)-D107-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f aca="false">IF((YEAR(F108)-D108)&lt;=11,"Avenirs",IF((YEAR(F108)-D108)&lt;=13,"Benjamins",IF((YEAR(F108)-D108)&lt;=18,"Juniors",IF((YEAR(F108)-D108)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F108)-D108-25)/5,0)))))</f>
+        <v>Benjamins</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f aca="false">IF((YEAR(F109)-D109)&lt;=11,"Avenirs",IF((YEAR(F109)-D109)&lt;=13,"Benjamins",IF((YEAR(F109)-D109)&lt;=18,"Juniors",IF((YEAR(F109)-D109)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F109)-D109-25)/5,0)))))</f>
+        <v>Benjamins</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f aca="false">IF((YEAR(F110)-D110)&lt;=11,"Avenirs",IF((YEAR(F110)-D110)&lt;=13,"Benjamins",IF((YEAR(F110)-D110)&lt;=18,"Juniors",IF((YEAR(F110)-D110)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F110)-D110-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f aca="false">IF((YEAR(F111)-D111)&lt;=11,"Avenirs",IF((YEAR(F111)-D111)&lt;=13,"Benjamins",IF((YEAR(F111)-D111)&lt;=18,"Juniors",IF((YEAR(F111)-D111)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F111)-D111-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f aca="false">IF((YEAR(F112)-D112)&lt;=11,"Avenirs",IF((YEAR(F112)-D112)&lt;=13,"Benjamins",IF((YEAR(F112)-D112)&lt;=18,"Juniors",IF((YEAR(F112)-D112)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F112)-D112-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f aca="false">IF((YEAR(F113)-D113)&lt;=11,"Avenirs",IF((YEAR(F113)-D113)&lt;=13,"Benjamins",IF((YEAR(F113)-D113)&lt;=18,"Juniors",IF((YEAR(F113)-D113)&lt;=25,"Seniors","Master C"&amp;ROUNDUP((YEAR(F113)-D113-25)/5,0)))))</f>
+        <v>Juniors</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3378,26 +3967,26 @@
   <sheetFormatPr defaultColWidth="13.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>159</v>
+      <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3419,139 +4008,139 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="4"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="4"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="4"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="4"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="4"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="4"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="4"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="4"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="4"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="4"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="4"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="4"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="4"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="4"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="4"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="4"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="4"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="4"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="4"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="4"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="4"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J54" s="4"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J55" s="4"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J56" s="4"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J57" s="4"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J58" s="4"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J59" s="4"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J60" s="4"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J61" s="4"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J62" s="4"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J63" s="4"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="4"/>
+      <c r="J64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
